--- a/data/Game/HomeResource.xlsx
+++ b/data/Game/HomeResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED931A79-3BD3-48FA-8CFD-3349AFB149E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9EB6EF-C53A-4993-8A83-99091DFE4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeResource" sheetId="1" r:id="rId1"/>
@@ -235,6 +235,9 @@
     <t>An toàn</t>
   </si>
   <si>
+    <t>Nghiệp (Karma)</t>
+  </si>
+  <si>
     <t>Danh tiếng</t>
   </si>
   <si>
@@ -263,9 +266,6 @@
   </si>
   <si>
     <t>Nơi trồng trọt và thu hoạch cây trồng</t>
-  </si>
-  <si>
-    <t>Nghiệp (Karma)</t>
   </si>
 </sst>
 </file>
@@ -627,15 +627,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -701,13 +701,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -724,13 +724,13 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -747,13 +747,13 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -770,13 +770,13 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -793,13 +793,13 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -816,13 +816,13 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -839,7 +839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -856,7 +856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -881,7 +881,7 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -890,7 +890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -898,7 +898,7 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -907,7 +907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -915,7 +915,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
@@ -924,7 +924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -932,7 +932,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -941,7 +941,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -949,7 +949,7 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
@@ -958,7 +958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -966,7 +966,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>

--- a/data/Game/HomeResource.xlsx
+++ b/data/Game/HomeResource.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">food</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Hearth</t>
